--- a/results/mp/tinybert/corona/confidence/168/topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,85 +52,79 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hand</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
@@ -139,10 +133,25 @@
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>you</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,10 +517,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +578,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.88</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,31 +596,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L3">
+        <v>56</v>
+      </c>
+      <c r="M3">
+        <v>56</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -619,13 +628,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7142857142857143</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +678,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3175965665236051</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C5">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D5">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>159</v>
+        <v>411</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,137 +728,89 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2558139534883721</v>
+        <v>0.175531914893617</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L7">
+        <v>33</v>
+      </c>
+      <c r="M7">
+        <v>33</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>0.90625</v>
-      </c>
-      <c r="L6">
-        <v>29</v>
-      </c>
-      <c r="M6">
-        <v>29</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.25</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>21</v>
-      </c>
-      <c r="M7">
-        <v>21</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>110</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -861,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -887,21 +848,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8214285714285714</v>
+        <v>0.8</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -913,21 +874,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7962962962962963</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -939,21 +900,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -965,21 +926,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -996,16 +957,16 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.74375</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1017,21 +978,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.726027397260274</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1043,21 +1004,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7241379310344828</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1069,21 +1030,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.72</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1095,21 +1056,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1121,21 +1082,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1147,21 +1108,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1173,47 +1134,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6363636363636364</v>
+        <v>0.58</v>
       </c>
       <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>21</v>
-      </c>
-      <c r="M21">
-        <v>21</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.5326370757180157</v>
       </c>
       <c r="L22">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="M22">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1225,21 +1186,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5581395348837209</v>
+        <v>0.4745762711864407</v>
       </c>
       <c r="L23">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="M23">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1251,21 +1212,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5416666666666666</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L24">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1277,21 +1238,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5357142857142857</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1303,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5164319248826291</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L26">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="M26">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1329,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>103</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1355,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4891304347826087</v>
+        <v>0.3891213389121339</v>
       </c>
       <c r="L28">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M28">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1381,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>47</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4324324324324325</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1407,33 +1368,163 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.01495327102803738</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>35</v>
+      </c>
+      <c r="N30">
+        <v>0.91</v>
+      </c>
+      <c r="O30">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.01385248970423063</v>
+      </c>
+      <c r="L31">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>0.95</v>
+      </c>
+      <c r="O31">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K30">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L30">
-        <v>15</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>20</v>
+      <c r="K32">
+        <v>0.01268412438625205</v>
+      </c>
+      <c r="L32">
+        <v>31</v>
+      </c>
+      <c r="M32">
+        <v>32</v>
+      </c>
+      <c r="N32">
+        <v>0.97</v>
+      </c>
+      <c r="O32">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.007626531083891842</v>
+      </c>
+      <c r="L33">
+        <v>33</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>0.97</v>
+      </c>
+      <c r="O33">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.007561070182241178</v>
+      </c>
+      <c r="L34">
+        <v>39</v>
+      </c>
+      <c r="M34">
+        <v>46</v>
+      </c>
+      <c r="N34">
+        <v>0.85</v>
+      </c>
+      <c r="O34">
+        <v>0.15</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.006207448938726472</v>
+      </c>
+      <c r="L35">
+        <v>31</v>
+      </c>
+      <c r="M35">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>4963</v>
       </c>
     </row>
   </sheetData>
